--- a/プロジェクト実績集計（社員・日々）.xlsx
+++ b/プロジェクト実績集計（社員・日々）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamamoto-r\Desktop\残業申請サンプル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\Jupyter\workhours\WorkHoursCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75A14A9-BD7F-4FFE-93FE-B4019D59F849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39F4861-5BD3-4810-BB13-684540925487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2730" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16412" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16411" uniqueCount="674">
   <si>
     <t>日付</t>
   </si>
@@ -2055,19 +2055,6 @@
   </si>
   <si>
     <t xml:space="preserve">GGL/設計/シートデバイス </t>
-  </si>
-  <si>
-    <t>6月就労時間(時間)</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>シュウロウジカン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -2495,10 +2482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2735"/>
+  <dimension ref="A1:G2735"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2513,7 +2500,7 @@
     <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27">
+    <row r="1" spans="1:7" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2536,7 +2523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2558,18 +2545,8 @@
       <c r="G2" s="2">
         <v>4</v>
       </c>
-      <c r="H2">
-        <f>SUM(G2:G106)</f>
-        <v>160</v>
-      </c>
-      <c r="K2" t="s">
-        <v>674</v>
-      </c>
-      <c r="L2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2592,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2615,7 +2592,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2638,7 +2615,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2661,7 +2638,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2684,7 +2661,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2707,7 +2684,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2730,7 +2707,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2753,7 +2730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2776,7 +2753,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2799,7 +2776,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2822,7 +2799,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -2845,7 +2822,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2868,7 +2845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -4731,7 +4708,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:7">
       <c r="A97" s="2" t="s">
         <v>44</v>
       </c>
@@ -4754,7 +4731,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:7">
       <c r="A98" s="2" t="s">
         <v>28</v>
       </c>
@@ -4777,7 +4754,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:7">
       <c r="A99" s="2" t="s">
         <v>20</v>
       </c>
@@ -4800,7 +4777,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:7">
       <c r="A100" s="2" t="s">
         <v>34</v>
       </c>
@@ -4823,7 +4800,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:7">
       <c r="A101" s="2" t="s">
         <v>53</v>
       </c>
@@ -4846,7 +4823,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:7">
       <c r="A102" s="2" t="s">
         <v>57</v>
       </c>
@@ -4869,7 +4846,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:7">
       <c r="A103" s="2" t="s">
         <v>61</v>
       </c>
@@ -4892,7 +4869,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:7">
       <c r="A104" s="2" t="s">
         <v>21</v>
       </c>
@@ -4915,7 +4892,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:7">
       <c r="A105" s="2" t="s">
         <v>65</v>
       </c>
@@ -4938,7 +4915,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:7">
       <c r="A106" s="2" t="s">
         <v>62</v>
       </c>
@@ -4961,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:7">
       <c r="A107" s="2" t="s">
         <v>16</v>
       </c>
@@ -4983,12 +4960,8 @@
       <c r="G107" s="2">
         <v>5</v>
       </c>
-      <c r="H107">
-        <f>SUM(G107:G157)</f>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="2" t="s">
         <v>27</v>
       </c>
@@ -5011,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:7">
       <c r="A109" s="2" t="s">
         <v>65</v>
       </c>
@@ -5034,7 +5007,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
         <v>34</v>
       </c>
@@ -5057,7 +5030,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:7">
       <c r="A111" s="2" t="s">
         <v>53</v>
       </c>
@@ -5080,7 +5053,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:7">
       <c r="A112" s="2" t="s">
         <v>16</v>
       </c>
@@ -5839,7 +5812,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:7">
       <c r="A145" s="2" t="s">
         <v>21</v>
       </c>
@@ -5862,7 +5835,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:7">
       <c r="A146" s="2" t="s">
         <v>27</v>
       </c>
@@ -5885,7 +5858,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:7">
       <c r="A147" s="2" t="s">
         <v>65</v>
       </c>
@@ -5908,7 +5881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:7">
       <c r="A148" s="2" t="s">
         <v>35</v>
       </c>
@@ -5931,7 +5904,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:7">
       <c r="A149" s="2" t="s">
         <v>19</v>
       </c>
@@ -5954,7 +5927,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:7">
       <c r="A150" s="2" t="s">
         <v>41</v>
       </c>
@@ -5977,7 +5950,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:7">
       <c r="A151" s="2" t="s">
         <v>44</v>
       </c>
@@ -6000,7 +5973,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:7">
       <c r="A152" s="2" t="s">
         <v>28</v>
       </c>
@@ -6023,7 +5996,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:7">
       <c r="A153" s="2" t="s">
         <v>20</v>
       </c>
@@ -6046,7 +6019,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:7">
       <c r="A154" s="2" t="s">
         <v>34</v>
       </c>
@@ -6069,7 +6042,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:7">
       <c r="A155" s="2" t="s">
         <v>53</v>
       </c>
@@ -6092,7 +6065,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:7">
       <c r="A156" s="2" t="s">
         <v>57</v>
       </c>
@@ -6115,7 +6088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:7">
       <c r="A157" s="2" t="s">
         <v>61</v>
       </c>
@@ -6138,7 +6111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:7">
       <c r="A158" s="2" t="s">
         <v>75</v>
       </c>
@@ -6160,12 +6133,8 @@
       <c r="G158" s="2">
         <v>1</v>
       </c>
-      <c r="H158">
-        <f>SUM(G158:G245)</f>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="2" t="s">
         <v>19</v>
       </c>
@@ -6188,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:7">
       <c r="A160" s="2" t="s">
         <v>16</v>
       </c>
@@ -8051,7 +8020,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:7">
       <c r="A241" s="2" t="s">
         <v>75</v>
       </c>
@@ -8074,7 +8043,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:7">
       <c r="A242" s="2" t="s">
         <v>47</v>
       </c>
@@ -8097,7 +8066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:7">
       <c r="A243" s="2" t="s">
         <v>21</v>
       </c>
@@ -8120,7 +8089,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:7">
       <c r="A244" s="2" t="s">
         <v>27</v>
       </c>
@@ -8143,7 +8112,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:7">
       <c r="A245" s="2" t="s">
         <v>34</v>
       </c>
@@ -8166,7 +8135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="27">
+    <row r="246" spans="1:7" ht="27">
       <c r="A246" s="2" t="s">
         <v>34</v>
       </c>
@@ -8188,12 +8157,8 @@
       <c r="G246" s="2">
         <v>0.5</v>
       </c>
-      <c r="H246">
-        <f>SUM(G246:G375)</f>
-        <v>166.66666666666666</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247" s="2" t="s">
         <v>61</v>
       </c>
@@ -8216,7 +8181,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="27">
+    <row r="248" spans="1:7" ht="27">
       <c r="A248" s="2" t="s">
         <v>7</v>
       </c>
@@ -8239,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:7">
       <c r="A249" s="2" t="s">
         <v>7</v>
       </c>
@@ -8262,7 +8227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:7">
       <c r="A250" s="2" t="s">
         <v>7</v>
       </c>
@@ -8285,7 +8250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:7">
       <c r="A251" s="2" t="s">
         <v>62</v>
       </c>
@@ -8308,7 +8273,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="27">
+    <row r="252" spans="1:7" ht="27">
       <c r="A252" s="2" t="s">
         <v>62</v>
       </c>
@@ -8331,7 +8296,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="27">
+    <row r="253" spans="1:7" ht="27">
       <c r="A253" s="2" t="s">
         <v>21</v>
       </c>
@@ -8354,7 +8319,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:7">
       <c r="A254" s="2" t="s">
         <v>21</v>
       </c>
@@ -8377,7 +8342,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:7">
       <c r="A255" s="2" t="s">
         <v>21</v>
       </c>
@@ -8400,7 +8365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="27">
+    <row r="256" spans="1:7" ht="27">
       <c r="A256" s="2" t="s">
         <v>27</v>
       </c>
@@ -10999,7 +10964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:7">
       <c r="A369" s="2" t="s">
         <v>53</v>
       </c>
@@ -11022,7 +10987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:7">
       <c r="A370" s="2" t="s">
         <v>57</v>
       </c>
@@ -11045,7 +11010,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:7">
       <c r="A371" s="2" t="s">
         <v>75</v>
       </c>
@@ -11068,7 +11033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:7">
       <c r="A372" s="2" t="s">
         <v>47</v>
       </c>
@@ -11091,7 +11056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:7">
       <c r="A373" s="2" t="s">
         <v>65</v>
       </c>
@@ -11114,7 +11079,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:7">
       <c r="A374" s="2" t="s">
         <v>41</v>
       </c>
@@ -11137,7 +11102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:7">
       <c r="A375" s="2" t="s">
         <v>62</v>
       </c>
@@ -11160,7 +11125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:7">
       <c r="A376" s="2" t="s">
         <v>34</v>
       </c>
@@ -11182,12 +11147,8 @@
       <c r="G376" s="2">
         <v>6</v>
       </c>
-      <c r="H376">
-        <f>SUM(G376:G434)</f>
-        <v>178.99999999999997</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8">
+    </row>
+    <row r="377" spans="1:7">
       <c r="A377" s="2" t="s">
         <v>21</v>
       </c>
@@ -11210,7 +11171,7 @@
         <v>6.6666666666666599</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:7">
       <c r="A378" s="2" t="s">
         <v>27</v>
       </c>
@@ -11233,7 +11194,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:7">
       <c r="A379" s="2" t="s">
         <v>27</v>
       </c>
@@ -11256,7 +11217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:7">
       <c r="A380" s="2" t="s">
         <v>27</v>
       </c>
@@ -11279,7 +11240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:7">
       <c r="A381" s="2" t="s">
         <v>65</v>
       </c>
@@ -11302,7 +11263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:7">
       <c r="A382" s="2" t="s">
         <v>47</v>
       </c>
@@ -11325,7 +11286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:7">
       <c r="A383" s="2" t="s">
         <v>7</v>
       </c>
@@ -11348,7 +11309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="27">
+    <row r="384" spans="1:7" ht="27">
       <c r="A384" s="2" t="s">
         <v>7</v>
       </c>
@@ -12475,7 +12436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:7">
       <c r="A433" s="2" t="s">
         <v>21</v>
       </c>
@@ -12498,7 +12459,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:7">
       <c r="A434" s="2" t="s">
         <v>53</v>
       </c>
@@ -12521,7 +12482,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:7">
       <c r="A435" s="2" t="s">
         <v>82</v>
       </c>
@@ -12543,12 +12504,8 @@
       <c r="G435" s="2">
         <v>1</v>
       </c>
-      <c r="H435">
-        <f>SUM(G435:G470)</f>
-        <v>152.9166666666666</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8">
+    </row>
+    <row r="436" spans="1:7">
       <c r="A436" s="2" t="s">
         <v>16</v>
       </c>
@@ -12571,7 +12528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:7">
       <c r="A437" s="2" t="s">
         <v>69</v>
       </c>
@@ -12594,7 +12551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:7">
       <c r="A438" s="2" t="s">
         <v>47</v>
       </c>
@@ -12617,7 +12574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:7">
       <c r="A439" s="2" t="s">
         <v>7</v>
       </c>
@@ -12640,7 +12597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:7">
       <c r="A440" s="2" t="s">
         <v>62</v>
       </c>
@@ -12663,7 +12620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:7">
       <c r="A441" s="2" t="s">
         <v>21</v>
       </c>
@@ -12686,7 +12643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:7">
       <c r="A442" s="2" t="s">
         <v>27</v>
       </c>
@@ -12709,7 +12666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:7">
       <c r="A443" s="2" t="s">
         <v>35</v>
       </c>
@@ -12732,7 +12689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:7">
       <c r="A444" s="2" t="s">
         <v>19</v>
       </c>
@@ -12755,7 +12712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:7">
       <c r="A445" s="2" t="s">
         <v>41</v>
       </c>
@@ -12778,7 +12735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:7">
       <c r="A446" s="2" t="s">
         <v>44</v>
       </c>
@@ -12801,7 +12758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:7">
       <c r="A447" s="2" t="s">
         <v>28</v>
       </c>
@@ -12824,7 +12781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:7">
       <c r="A448" s="2" t="s">
         <v>20</v>
       </c>
@@ -13215,7 +13172,7 @@
         <v>9.6666666666666607</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:7">
       <c r="A465" s="2" t="s">
         <v>28</v>
       </c>
@@ -13238,7 +13195,7 @@
         <v>8.6666666666666607</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:7">
       <c r="A466" s="2" t="s">
         <v>20</v>
       </c>
@@ -13261,7 +13218,7 @@
         <v>8.3333333333333304</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:7">
       <c r="A467" s="2" t="s">
         <v>34</v>
       </c>
@@ -13284,7 +13241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:7">
       <c r="A468" s="2" t="s">
         <v>53</v>
       </c>
@@ -13307,7 +13264,7 @@
         <v>6.5833333333333304</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:7">
       <c r="A469" s="2" t="s">
         <v>57</v>
       </c>
@@ -13330,7 +13287,7 @@
         <v>6.0833333333333304</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:7">
       <c r="A470" s="2" t="s">
         <v>61</v>
       </c>
@@ -13353,7 +13310,7 @@
         <v>5.1666666666666599</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:7">
       <c r="A471" s="2" t="s">
         <v>16</v>
       </c>
@@ -13375,12 +13332,8 @@
       <c r="G471" s="2">
         <v>1.5</v>
       </c>
-      <c r="H471">
-        <f>SUM(G471:G649)</f>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8">
+    </row>
+    <row r="472" spans="1:7">
       <c r="A472" s="2" t="s">
         <v>21</v>
       </c>
@@ -13403,7 +13356,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:7">
       <c r="A473" s="2" t="s">
         <v>21</v>
       </c>
@@ -13426,7 +13379,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:7">
       <c r="A474" s="2" t="s">
         <v>34</v>
       </c>
@@ -13449,7 +13402,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:7">
       <c r="A475" s="2" t="s">
         <v>53</v>
       </c>
@@ -13472,7 +13425,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:7">
       <c r="A476" s="2" t="s">
         <v>53</v>
       </c>
@@ -13495,7 +13448,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:7">
       <c r="A477" s="2" t="s">
         <v>53</v>
       </c>
@@ -13518,7 +13471,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:7">
       <c r="A478" s="2" t="s">
         <v>69</v>
       </c>
@@ -13541,7 +13494,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:7">
       <c r="A479" s="2" t="s">
         <v>28</v>
       </c>
@@ -13564,7 +13517,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:7">
       <c r="A480" s="2" t="s">
         <v>28</v>
       </c>
@@ -17267,7 +17220,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="641" spans="1:8">
+    <row r="641" spans="1:7">
       <c r="A641" s="2" t="s">
         <v>20</v>
       </c>
@@ -17290,7 +17243,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="642" spans="1:8">
+    <row r="642" spans="1:7">
       <c r="A642" s="2" t="s">
         <v>34</v>
       </c>
@@ -17313,7 +17266,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:7">
       <c r="A643" s="2" t="s">
         <v>53</v>
       </c>
@@ -17336,7 +17289,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="644" spans="1:8">
+    <row r="644" spans="1:7">
       <c r="A644" s="2" t="s">
         <v>57</v>
       </c>
@@ -17359,7 +17312,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:7">
       <c r="A645" s="2" t="s">
         <v>61</v>
       </c>
@@ -17382,7 +17335,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:7">
       <c r="A646" s="2" t="s">
         <v>21</v>
       </c>
@@ -17405,7 +17358,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:7">
       <c r="A647" s="2" t="s">
         <v>61</v>
       </c>
@@ -17428,7 +17381,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:7">
       <c r="A648" s="2" t="s">
         <v>65</v>
       </c>
@@ -17451,7 +17404,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:7">
       <c r="A649" s="2" t="s">
         <v>62</v>
       </c>
@@ -17474,7 +17427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:7">
       <c r="A650" s="2" t="s">
         <v>82</v>
       </c>
@@ -17496,12 +17449,8 @@
       <c r="G650" s="2">
         <v>2</v>
       </c>
-      <c r="H650">
-        <f>SUM(G650:G771)</f>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="651" spans="1:8">
+    </row>
+    <row r="651" spans="1:7">
       <c r="A651" s="2" t="s">
         <v>16</v>
       </c>
@@ -17524,7 +17473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:7">
       <c r="A652" s="2" t="s">
         <v>69</v>
       </c>
@@ -17547,7 +17496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:7">
       <c r="A653" s="2" t="s">
         <v>75</v>
       </c>
@@ -17570,7 +17519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:7">
       <c r="A654" s="2" t="s">
         <v>47</v>
       </c>
@@ -17593,7 +17542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:7">
       <c r="A655" s="2" t="s">
         <v>7</v>
       </c>
@@ -17616,7 +17565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:7">
       <c r="A656" s="2" t="s">
         <v>62</v>
       </c>
@@ -20215,7 +20164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="769" spans="1:8">
+    <row r="769" spans="1:7">
       <c r="A769" s="2" t="s">
         <v>53</v>
       </c>
@@ -20238,7 +20187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:8">
+    <row r="770" spans="1:7">
       <c r="A770" s="2" t="s">
         <v>57</v>
       </c>
@@ -20261,7 +20210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:8">
+    <row r="771" spans="1:7">
       <c r="A771" s="2" t="s">
         <v>61</v>
       </c>
@@ -20284,7 +20233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:8">
+    <row r="772" spans="1:7">
       <c r="A772" s="2" t="s">
         <v>65</v>
       </c>
@@ -20306,12 +20255,8 @@
       <c r="G772" s="2">
         <v>1</v>
       </c>
-      <c r="H772">
-        <f>SUM(G772:G868)</f>
-        <v>168.5</v>
-      </c>
-    </row>
-    <row r="773" spans="1:8">
+    </row>
+    <row r="773" spans="1:7">
       <c r="A773" s="2" t="s">
         <v>82</v>
       </c>
@@ -20334,7 +20279,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="774" spans="1:8">
+    <row r="774" spans="1:7">
       <c r="A774" s="2" t="s">
         <v>16</v>
       </c>
@@ -20357,7 +20302,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="775" spans="1:8">
+    <row r="775" spans="1:7">
       <c r="A775" s="2" t="s">
         <v>69</v>
       </c>
@@ -20380,7 +20325,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="776" spans="1:8">
+    <row r="776" spans="1:7">
       <c r="A776" s="2" t="s">
         <v>75</v>
       </c>
@@ -20403,7 +20348,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="777" spans="1:8">
+    <row r="777" spans="1:7">
       <c r="A777" s="2" t="s">
         <v>47</v>
       </c>
@@ -20426,7 +20371,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="778" spans="1:8">
+    <row r="778" spans="1:7">
       <c r="A778" s="2" t="s">
         <v>7</v>
       </c>
@@ -20449,7 +20394,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="779" spans="1:8">
+    <row r="779" spans="1:7">
       <c r="A779" s="2" t="s">
         <v>62</v>
       </c>
@@ -20472,7 +20417,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="780" spans="1:8">
+    <row r="780" spans="1:7">
       <c r="A780" s="2" t="s">
         <v>21</v>
       </c>
@@ -20495,7 +20440,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="781" spans="1:8">
+    <row r="781" spans="1:7">
       <c r="A781" s="2" t="s">
         <v>27</v>
       </c>
@@ -20518,7 +20463,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="782" spans="1:8">
+    <row r="782" spans="1:7">
       <c r="A782" s="2" t="s">
         <v>65</v>
       </c>
@@ -20541,7 +20486,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="783" spans="1:8">
+    <row r="783" spans="1:7">
       <c r="A783" s="2" t="s">
         <v>35</v>
       </c>
@@ -20564,7 +20509,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="784" spans="1:8">
+    <row r="784" spans="1:7">
       <c r="A784" s="2" t="s">
         <v>19</v>
       </c>
@@ -22427,7 +22372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="865" spans="1:8">
+    <row r="865" spans="1:7">
       <c r="A865" s="2" t="s">
         <v>34</v>
       </c>
@@ -22450,7 +22395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="866" spans="1:8">
+    <row r="866" spans="1:7">
       <c r="A866" s="2" t="s">
         <v>53</v>
       </c>
@@ -22473,7 +22418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="867" spans="1:8">
+    <row r="867" spans="1:7">
       <c r="A867" s="2" t="s">
         <v>57</v>
       </c>
@@ -22496,7 +22441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="868" spans="1:8">
+    <row r="868" spans="1:7">
       <c r="A868" s="2" t="s">
         <v>61</v>
       </c>
@@ -22519,7 +22464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="869" spans="1:8">
+    <row r="869" spans="1:7">
       <c r="A869" s="2" t="s">
         <v>69</v>
       </c>
@@ -22541,12 +22486,8 @@
       <c r="G869" s="2">
         <v>1.5</v>
       </c>
-      <c r="H869">
-        <f>SUM(G869:G931)</f>
-        <v>174</v>
-      </c>
-    </row>
-    <row r="870" spans="1:8">
+    </row>
+    <row r="870" spans="1:7">
       <c r="A870" s="2" t="s">
         <v>53</v>
       </c>
@@ -22569,7 +22510,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="871" spans="1:8">
+    <row r="871" spans="1:7">
       <c r="A871" s="2" t="s">
         <v>75</v>
       </c>
@@ -22592,7 +22533,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="872" spans="1:8">
+    <row r="872" spans="1:7">
       <c r="A872" s="2" t="s">
         <v>41</v>
       </c>
@@ -22615,7 +22556,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="873" spans="1:8">
+    <row r="873" spans="1:7">
       <c r="A873" s="2" t="s">
         <v>41</v>
       </c>
@@ -22638,7 +22579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="874" spans="1:8">
+    <row r="874" spans="1:7">
       <c r="A874" s="2" t="s">
         <v>41</v>
       </c>
@@ -22661,7 +22602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="875" spans="1:8">
+    <row r="875" spans="1:7">
       <c r="A875" s="2" t="s">
         <v>82</v>
       </c>
@@ -22684,7 +22625,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="876" spans="1:8">
+    <row r="876" spans="1:7">
       <c r="A876" s="2" t="s">
         <v>16</v>
       </c>
@@ -22707,7 +22648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="877" spans="1:8">
+    <row r="877" spans="1:7">
       <c r="A877" s="2" t="s">
         <v>69</v>
       </c>
@@ -22730,7 +22671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="878" spans="1:8">
+    <row r="878" spans="1:7">
       <c r="A878" s="2" t="s">
         <v>69</v>
       </c>
@@ -22753,7 +22694,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="879" spans="1:8">
+    <row r="879" spans="1:7">
       <c r="A879" s="2" t="s">
         <v>75</v>
       </c>
@@ -22776,7 +22717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="880" spans="1:8">
+    <row r="880" spans="1:7">
       <c r="A880" s="2" t="s">
         <v>47</v>
       </c>
@@ -23903,7 +23844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="929" spans="1:8">
+    <row r="929" spans="1:7">
       <c r="A929" s="2" t="s">
         <v>57</v>
       </c>
@@ -23926,7 +23867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:8">
+    <row r="930" spans="1:7">
       <c r="A930" s="2" t="s">
         <v>21</v>
       </c>
@@ -23949,7 +23890,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="931" spans="1:8">
+    <row r="931" spans="1:7">
       <c r="A931" s="2" t="s">
         <v>65</v>
       </c>
@@ -23972,7 +23913,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="932" spans="1:8">
+    <row r="932" spans="1:7">
       <c r="A932" s="2" t="s">
         <v>82</v>
       </c>
@@ -23995,7 +23936,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="933" spans="1:8">
+    <row r="933" spans="1:7">
       <c r="A933" s="2" t="s">
         <v>75</v>
       </c>
@@ -24017,12 +23958,8 @@
       <c r="G933" s="2">
         <v>2.5</v>
       </c>
-      <c r="H933">
-        <f>SUM(G933:G1045)</f>
-        <v>159.5</v>
-      </c>
-    </row>
-    <row r="934" spans="1:8">
+    </row>
+    <row r="934" spans="1:7">
       <c r="A934" s="2" t="s">
         <v>47</v>
       </c>
@@ -24045,7 +23982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="935" spans="1:8">
+    <row r="935" spans="1:7">
       <c r="A935" s="2" t="s">
         <v>7</v>
       </c>
@@ -24068,7 +24005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:8">
+    <row r="936" spans="1:7">
       <c r="A936" s="2" t="s">
         <v>62</v>
       </c>
@@ -24091,7 +24028,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="937" spans="1:8">
+    <row r="937" spans="1:7">
       <c r="A937" s="2" t="s">
         <v>21</v>
       </c>
@@ -24114,7 +24051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:8">
+    <row r="938" spans="1:7">
       <c r="A938" s="2" t="s">
         <v>27</v>
       </c>
@@ -24137,7 +24074,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="939" spans="1:8">
+    <row r="939" spans="1:7">
       <c r="A939" s="2" t="s">
         <v>44</v>
       </c>
@@ -24160,7 +24097,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="940" spans="1:8">
+    <row r="940" spans="1:7">
       <c r="A940" s="2" t="s">
         <v>28</v>
       </c>
@@ -24183,7 +24120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:8">
+    <row r="941" spans="1:7">
       <c r="A941" s="2" t="s">
         <v>20</v>
       </c>
@@ -24206,7 +24143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="942" spans="1:8">
+    <row r="942" spans="1:7">
       <c r="A942" s="2" t="s">
         <v>53</v>
       </c>
@@ -24229,7 +24166,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="943" spans="1:8">
+    <row r="943" spans="1:7">
       <c r="A943" s="2" t="s">
         <v>57</v>
       </c>
@@ -24252,7 +24189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="944" spans="1:8">
+    <row r="944" spans="1:7">
       <c r="A944" s="2" t="s">
         <v>65</v>
       </c>
@@ -34947,7 +34884,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="1409" spans="1:8">
+    <row r="1409" spans="1:7">
       <c r="A1409" s="2" t="s">
         <v>20</v>
       </c>
@@ -34970,7 +34907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1410" spans="1:8">
+    <row r="1410" spans="1:7">
       <c r="A1410" s="2" t="s">
         <v>34</v>
       </c>
@@ -34993,7 +34930,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="1411" spans="1:8">
+    <row r="1411" spans="1:7">
       <c r="A1411" s="2" t="s">
         <v>53</v>
       </c>
@@ -35016,7 +34953,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="1412" spans="1:8">
+    <row r="1412" spans="1:7">
       <c r="A1412" s="2" t="s">
         <v>57</v>
       </c>
@@ -35039,7 +34976,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="1413" spans="1:8">
+    <row r="1413" spans="1:7">
       <c r="A1413" s="2" t="s">
         <v>61</v>
       </c>
@@ -35062,7 +34999,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="1414" spans="1:8">
+    <row r="1414" spans="1:7">
       <c r="A1414" s="2" t="s">
         <v>53</v>
       </c>
@@ -35085,7 +35022,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1415" spans="1:8">
+    <row r="1415" spans="1:7">
       <c r="A1415" s="2" t="s">
         <v>57</v>
       </c>
@@ -35107,12 +35044,8 @@
       <c r="G1415" s="2">
         <v>0.25</v>
       </c>
-      <c r="H1415">
-        <f>SUM(G1415:G1455)</f>
-        <v>193.3333333333332</v>
-      </c>
-    </row>
-    <row r="1416" spans="1:8">
+    </row>
+    <row r="1416" spans="1:7">
       <c r="A1416" s="2" t="s">
         <v>20</v>
       </c>
@@ -35135,7 +35068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1417" spans="1:8">
+    <row r="1417" spans="1:7">
       <c r="A1417" s="2" t="s">
         <v>82</v>
       </c>
@@ -35158,7 +35091,7 @@
         <v>4.8333333333333304</v>
       </c>
     </row>
-    <row r="1418" spans="1:8">
+    <row r="1418" spans="1:7">
       <c r="A1418" s="2" t="s">
         <v>16</v>
       </c>
@@ -35181,7 +35114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1419" spans="1:8">
+    <row r="1419" spans="1:7">
       <c r="A1419" s="2" t="s">
         <v>69</v>
       </c>
@@ -35204,7 +35137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1420" spans="1:8">
+    <row r="1420" spans="1:7">
       <c r="A1420" s="2" t="s">
         <v>75</v>
       </c>
@@ -35227,7 +35160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1421" spans="1:8">
+    <row r="1421" spans="1:7">
       <c r="A1421" s="2" t="s">
         <v>47</v>
       </c>
@@ -35250,7 +35183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1422" spans="1:8">
+    <row r="1422" spans="1:7">
       <c r="A1422" s="2" t="s">
         <v>7</v>
       </c>
@@ -35273,7 +35206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1423" spans="1:8">
+    <row r="1423" spans="1:7">
       <c r="A1423" s="2" t="s">
         <v>62</v>
       </c>
@@ -35296,7 +35229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1424" spans="1:8">
+    <row r="1424" spans="1:7">
       <c r="A1424" s="2" t="s">
         <v>27</v>
       </c>
@@ -35687,7 +35620,7 @@
         <v>10.3333333333333</v>
       </c>
     </row>
-    <row r="1441" spans="1:8">
+    <row r="1441" spans="1:7">
       <c r="A1441" s="2" t="s">
         <v>57</v>
       </c>
@@ -35710,7 +35643,7 @@
         <v>9.5833333333333304</v>
       </c>
     </row>
-    <row r="1442" spans="1:8">
+    <row r="1442" spans="1:7">
       <c r="A1442" s="2" t="s">
         <v>61</v>
       </c>
@@ -35733,7 +35666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1443" spans="1:8">
+    <row r="1443" spans="1:7">
       <c r="A1443" s="2" t="s">
         <v>7</v>
       </c>
@@ -35756,7 +35689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1444" spans="1:8">
+    <row r="1444" spans="1:7">
       <c r="A1444" s="2" t="s">
         <v>62</v>
       </c>
@@ -35779,7 +35712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1445" spans="1:8">
+    <row r="1445" spans="1:7">
       <c r="A1445" s="2" t="s">
         <v>21</v>
       </c>
@@ -35802,7 +35735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1446" spans="1:8">
+    <row r="1446" spans="1:7">
       <c r="A1446" s="2" t="s">
         <v>27</v>
       </c>
@@ -35825,7 +35758,7 @@
         <v>6.4166666666666599</v>
       </c>
     </row>
-    <row r="1447" spans="1:8">
+    <row r="1447" spans="1:7">
       <c r="A1447" s="2" t="s">
         <v>65</v>
       </c>
@@ -35848,7 +35781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1448" spans="1:8">
+    <row r="1448" spans="1:7">
       <c r="A1448" s="2" t="s">
         <v>35</v>
       </c>
@@ -35871,7 +35804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1449" spans="1:8">
+    <row r="1449" spans="1:7">
       <c r="A1449" s="2" t="s">
         <v>19</v>
       </c>
@@ -35894,7 +35827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1450" spans="1:8">
+    <row r="1450" spans="1:7">
       <c r="A1450" s="2" t="s">
         <v>41</v>
       </c>
@@ -35917,7 +35850,7 @@
         <v>11.1666666666666</v>
       </c>
     </row>
-    <row r="1451" spans="1:8">
+    <row r="1451" spans="1:7">
       <c r="A1451" s="2" t="s">
         <v>44</v>
       </c>
@@ -35940,7 +35873,7 @@
         <v>10.5833333333333</v>
       </c>
     </row>
-    <row r="1452" spans="1:8">
+    <row r="1452" spans="1:7">
       <c r="A1452" s="2" t="s">
         <v>28</v>
       </c>
@@ -35963,7 +35896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1453" spans="1:8">
+    <row r="1453" spans="1:7">
       <c r="A1453" s="2" t="s">
         <v>28</v>
       </c>
@@ -35986,7 +35919,7 @@
         <v>9.0833333333333304</v>
       </c>
     </row>
-    <row r="1454" spans="1:8">
+    <row r="1454" spans="1:7">
       <c r="A1454" s="2" t="s">
         <v>20</v>
       </c>
@@ -36009,7 +35942,7 @@
         <v>5.8333333333333304</v>
       </c>
     </row>
-    <row r="1455" spans="1:8">
+    <row r="1455" spans="1:7">
       <c r="A1455" s="2" t="s">
         <v>34</v>
       </c>
@@ -36032,7 +35965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1456" spans="1:8">
+    <row r="1456" spans="1:7">
       <c r="A1456" s="2" t="s">
         <v>21</v>
       </c>
@@ -36053,10 +35986,6 @@
       </c>
       <c r="G1456" s="2">
         <v>0.5</v>
-      </c>
-      <c r="H1456">
-        <f>SUM(G1456:G1480)</f>
-        <v>112</v>
       </c>
     </row>
     <row r="1457" spans="1:7">
@@ -39371,7 +39300,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1601" spans="1:8">
+    <row r="1601" spans="1:7">
       <c r="A1601" s="2" t="s">
         <v>62</v>
       </c>
@@ -39393,12 +39322,8 @@
       <c r="G1601" s="2">
         <v>2</v>
       </c>
-      <c r="H1601">
-        <f>SUM(G1601:G1671)</f>
-        <v>177.75</v>
-      </c>
-    </row>
-    <row r="1602" spans="1:8">
+    </row>
+    <row r="1602" spans="1:7">
       <c r="A1602" s="2" t="s">
         <v>27</v>
       </c>
@@ -39421,7 +39346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1603" spans="1:8">
+    <row r="1603" spans="1:7">
       <c r="A1603" s="2" t="s">
         <v>19</v>
       </c>
@@ -39444,7 +39369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1604" spans="1:8">
+    <row r="1604" spans="1:7">
       <c r="A1604" s="2" t="s">
         <v>69</v>
       </c>
@@ -39467,7 +39392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1605" spans="1:8">
+    <row r="1605" spans="1:7">
       <c r="A1605" s="2" t="s">
         <v>75</v>
       </c>
@@ -39490,7 +39415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1606" spans="1:8">
+    <row r="1606" spans="1:7">
       <c r="A1606" s="2" t="s">
         <v>62</v>
       </c>
@@ -39513,7 +39438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1607" spans="1:8">
+    <row r="1607" spans="1:7">
       <c r="A1607" s="2" t="s">
         <v>21</v>
       </c>
@@ -39536,7 +39461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1608" spans="1:8">
+    <row r="1608" spans="1:7">
       <c r="A1608" s="2" t="s">
         <v>19</v>
       </c>
@@ -39559,7 +39484,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="1609" spans="1:8">
+    <row r="1609" spans="1:7">
       <c r="A1609" s="2" t="s">
         <v>34</v>
       </c>
@@ -39582,7 +39507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1610" spans="1:8">
+    <row r="1610" spans="1:7">
       <c r="A1610" s="2" t="s">
         <v>53</v>
       </c>
@@ -39605,7 +39530,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="1611" spans="1:8">
+    <row r="1611" spans="1:7">
       <c r="A1611" s="2" t="s">
         <v>7</v>
       </c>
@@ -39628,7 +39553,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="1612" spans="1:8">
+    <row r="1612" spans="1:7">
       <c r="A1612" s="2" t="s">
         <v>62</v>
       </c>
@@ -39651,7 +39576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1613" spans="1:8">
+    <row r="1613" spans="1:7">
       <c r="A1613" s="2" t="s">
         <v>41</v>
       </c>
@@ -39674,7 +39599,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1614" spans="1:8">
+    <row r="1614" spans="1:7">
       <c r="A1614" s="2" t="s">
         <v>20</v>
       </c>
@@ -39697,7 +39622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1615" spans="1:8">
+    <row r="1615" spans="1:7">
       <c r="A1615" s="2" t="s">
         <v>34</v>
       </c>
@@ -39720,7 +39645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1616" spans="1:8">
+    <row r="1616" spans="1:7">
       <c r="A1616" s="2" t="s">
         <v>16</v>
       </c>
@@ -43791,7 +43716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1793" spans="1:8">
+    <row r="1793" spans="1:7">
       <c r="A1793" s="2" t="s">
         <v>28</v>
       </c>
@@ -43814,7 +43739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1794" spans="1:8">
+    <row r="1794" spans="1:7">
       <c r="A1794" s="2" t="s">
         <v>57</v>
       </c>
@@ -43837,7 +43762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1795" spans="1:8">
+    <row r="1795" spans="1:7">
       <c r="A1795" s="2" t="s">
         <v>61</v>
       </c>
@@ -43860,7 +43785,7 @@
         <v>8.3333333333333304</v>
       </c>
     </row>
-    <row r="1796" spans="1:8">
+    <row r="1796" spans="1:7">
       <c r="A1796" s="2" t="s">
         <v>41</v>
       </c>
@@ -43883,7 +43808,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="1797" spans="1:8">
+    <row r="1797" spans="1:7">
       <c r="A1797" s="2" t="s">
         <v>44</v>
       </c>
@@ -43906,7 +43831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1798" spans="1:8">
+    <row r="1798" spans="1:7">
       <c r="A1798" s="2" t="s">
         <v>20</v>
       </c>
@@ -43929,7 +43854,7 @@
         <v>0.41666666666666602</v>
       </c>
     </row>
-    <row r="1799" spans="1:8">
+    <row r="1799" spans="1:7">
       <c r="A1799" s="2" t="s">
         <v>34</v>
       </c>
@@ -43952,7 +43877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1800" spans="1:8">
+    <row r="1800" spans="1:7">
       <c r="A1800" s="2" t="s">
         <v>82</v>
       </c>
@@ -43974,12 +43899,8 @@
       <c r="G1800" s="2">
         <v>2</v>
       </c>
-      <c r="H1800">
-        <f>SUM(G1800:G1841)</f>
-        <v>176.16666666666666</v>
-      </c>
-    </row>
-    <row r="1801" spans="1:8">
+    </row>
+    <row r="1801" spans="1:7">
       <c r="A1801" s="2" t="s">
         <v>16</v>
       </c>
@@ -44002,7 +43923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1802" spans="1:8">
+    <row r="1802" spans="1:7">
       <c r="A1802" s="2" t="s">
         <v>47</v>
       </c>
@@ -44025,7 +43946,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="1803" spans="1:8">
+    <row r="1803" spans="1:7">
       <c r="A1803" s="2" t="s">
         <v>19</v>
       </c>
@@ -44048,7 +43969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1804" spans="1:8">
+    <row r="1804" spans="1:7">
       <c r="A1804" s="2" t="s">
         <v>44</v>
       </c>
@@ -44071,7 +43992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1805" spans="1:8">
+    <row r="1805" spans="1:7">
       <c r="A1805" s="2" t="s">
         <v>28</v>
       </c>
@@ -44094,7 +44015,7 @@
         <v>1.3333333333333299</v>
       </c>
     </row>
-    <row r="1806" spans="1:8">
+    <row r="1806" spans="1:7">
       <c r="A1806" s="2" t="s">
         <v>20</v>
       </c>
@@ -44117,7 +44038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1807" spans="1:8">
+    <row r="1807" spans="1:7">
       <c r="A1807" s="2" t="s">
         <v>34</v>
       </c>
@@ -44140,7 +44061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1808" spans="1:8">
+    <row r="1808" spans="1:7">
       <c r="A1808" s="2" t="s">
         <v>53</v>
       </c>
@@ -57411,7 +57332,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="2385" spans="1:8">
+    <row r="2385" spans="1:7">
       <c r="A2385" s="2" t="s">
         <v>16</v>
       </c>
@@ -57434,7 +57355,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="2386" spans="1:8">
+    <row r="2386" spans="1:7">
       <c r="A2386" s="2" t="s">
         <v>82</v>
       </c>
@@ -57457,7 +57378,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="2387" spans="1:8">
+    <row r="2387" spans="1:7">
       <c r="A2387" s="2" t="s">
         <v>16</v>
       </c>
@@ -57480,7 +57401,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="2388" spans="1:8">
+    <row r="2388" spans="1:7">
       <c r="A2388" s="2" t="s">
         <v>69</v>
       </c>
@@ -57503,7 +57424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2389" spans="1:8">
+    <row r="2389" spans="1:7">
       <c r="A2389" s="2" t="s">
         <v>75</v>
       </c>
@@ -57526,7 +57447,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="2390" spans="1:8">
+    <row r="2390" spans="1:7">
       <c r="A2390" s="2" t="s">
         <v>7</v>
       </c>
@@ -57549,7 +57470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2391" spans="1:8">
+    <row r="2391" spans="1:7">
       <c r="A2391" s="2" t="s">
         <v>62</v>
       </c>
@@ -57572,7 +57493,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="2392" spans="1:8">
+    <row r="2392" spans="1:7">
       <c r="A2392" s="2" t="s">
         <v>21</v>
       </c>
@@ -57595,7 +57516,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="2393" spans="1:8">
+    <row r="2393" spans="1:7">
       <c r="A2393" s="2" t="s">
         <v>27</v>
       </c>
@@ -57618,7 +57539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2394" spans="1:8">
+    <row r="2394" spans="1:7">
       <c r="A2394" s="2" t="s">
         <v>65</v>
       </c>
@@ -57641,7 +57562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2395" spans="1:8">
+    <row r="2395" spans="1:7">
       <c r="A2395" s="2" t="s">
         <v>35</v>
       </c>
@@ -57664,7 +57585,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="2396" spans="1:8">
+    <row r="2396" spans="1:7">
       <c r="A2396" s="2" t="s">
         <v>41</v>
       </c>
@@ -57687,7 +57608,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="2397" spans="1:8">
+    <row r="2397" spans="1:7">
       <c r="A2397" s="2" t="s">
         <v>34</v>
       </c>
@@ -57710,7 +57631,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="2398" spans="1:8">
+    <row r="2398" spans="1:7">
       <c r="A2398" s="2" t="s">
         <v>61</v>
       </c>
@@ -57733,7 +57654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2399" spans="1:8">
+    <row r="2399" spans="1:7">
       <c r="A2399" s="2" t="s">
         <v>21</v>
       </c>
@@ -57755,12 +57676,8 @@
       <c r="G2399" s="2">
         <v>0.5</v>
       </c>
-      <c r="H2399">
-        <f>SUM(G2399:G2439)</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2400" spans="1:8">
+    </row>
+    <row r="2400" spans="1:7">
       <c r="A2400" s="2" t="s">
         <v>82</v>
       </c>
@@ -65491,8 +65408,6 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="H158" formulaRange="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>